--- a/Solidity_API_Smart_Contract/DOC.xlsx
+++ b/Solidity_API_Smart_Contract/DOC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
   <si>
     <t>변수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,9 +206,6 @@
     <t>bytes32 keyID, bool ack</t>
   </si>
   <si>
-    <t>custSignIn</t>
-  </si>
-  <si>
     <t>book</t>
   </si>
   <si>
@@ -246,17 +243,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>custSignIn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고객이 예약 업체명, 날짜와 시간 을 선택하면 해당하는 업체로 데이터를 보낸다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>compSignIn</t>
-  </si>
-  <si>
     <t>string memory compName, string memory id, string memory pw ,string memory addr,string memory phoneNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,6 +360,33 @@
   </si>
   <si>
     <t>생성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compSignUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custSignUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custLogIn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x75ca0618df9baa5770c87273ccc5e587c9d05207</t>
+  </si>
+  <si>
+    <t>https://ropsten.infura.io</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마트 컨트렉트 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트넷 주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,7 +394,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,8 +418,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +466,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -578,10 +617,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -597,9 +637,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -879,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -902,6 +946,9 @@
       <c r="C1" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="D1" s="15" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
@@ -911,6 +958,9 @@
       <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
@@ -920,6 +970,9 @@
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="D3" s="17" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
@@ -928,6 +981,9 @@
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -993,7 +1049,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -1005,7 +1061,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -1017,7 +1073,7 @@
         <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -1029,7 +1085,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -1055,7 +1111,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>36</v>
@@ -1158,43 +1214,43 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
       <c r="B29" s="7" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="7"/>
       <c r="B31" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" s="7"/>
     </row>
@@ -1225,84 +1281,84 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
       <c r="B35" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="7"/>
       <c r="B36" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="7"/>
       <c r="B37" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
       <c r="B38" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E39" s="7"/>
     </row>
@@ -1315,39 +1371,42 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="7"/>
       <c r="B42" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Solidity_API_Smart_Contract/DOC.xlsx
+++ b/Solidity_API_Smart_Contract/DOC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="130">
   <si>
     <t>변수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,14 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>alertToComp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alertToCust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>예약 요청 발생 시 에약 내역을 compID에 해당하는 업체가 확인할 수 있도록 예약 내역 전송</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,10 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string memory,bytes32 keyID,bool pass</t>
   </si>
   <si>
@@ -251,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>compLogIn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,10 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>books[] memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ackBook</t>
   </si>
   <si>
@@ -284,14 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string memory phoneNumber,uint32 idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>books[] memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>resBook</t>
   </si>
   <si>
@@ -387,6 +359,173 @@
   </si>
   <si>
     <t>테스트넷 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가할 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체/고객 회원 정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 이미지 수정(azure blob) 에는 사진을, 업체DB에는 사진명을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 description 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alertToCompEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alertToCustEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custSignUpEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compSignUpEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkBookListEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkNoShowListEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 회원가입 성공 여부를 Event로 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 회원가입 성공 여부를 Event로 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address from(Contract 주소), string to(고객 폰번호), bool pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address from(Contract 주소), string to(업체 폰번호), bool pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 리스트를 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노쇼 리스트를 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address from(Contract 주소), bytes32 compID(업체 고유ID),books[] bookList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address from(Contract 주소), string to(호출자(업체) 폰번호), books[] noShowList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string memory phoneNumber, string memory callerPN, uint32 idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event에 대한 CallBack 함수 레퍼런스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객이 어플로 예약 =&gt; alertToCompEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화나 어플 예약에 대한 승인여부 =&gt; alertToCustEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event Call 함수 동작 =&gt; Event 함수 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 회원가입 =&gt; custSignUpEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 회원가입 =&gt; compSignUpEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업체 최근 예약 리스트 =&gt; checkBookListEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객의 노쇼 기록 확인 =&gt; checkNoShowListEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listen 시에 폰 번호로 메시지 구별한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listen 시에 업체 고유 ID (compID)로 메시지 구별한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listen 시에 고객 고유 ID (keyID) 로 메시지 구별한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listen 시에 업체 고유 ID (compID)로 메시지 구별한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listen 시에 기록 확인자(or 업체) 의 폰번호로 메시지 구별한다.( checkUser 함수의 callerPN 파라미터 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image 쿼리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿼리 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://1mti06fa1l.execute-api.ap-northeast-2.amazonaws.com/nonoshow/compimgupload</t>
+  </si>
+  <si>
+    <t>multipart/form-Data 형식으로 이미지 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img src 주소 + 이미지 이름 (이미지 이름은 이더리움 API에서 회사이름으로 쿼리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nonoshowimg.s3.ap-northeast-2.amazonaws.com/compImages/ + 이미지명(확장자 포함)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +574,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,6 +611,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -621,7 +778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -640,6 +797,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -921,16 +1082,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="77.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="142.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
@@ -947,7 +1108,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -959,7 +1120,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -971,7 +1132,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -983,7 +1144,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -1049,7 +1210,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -1061,7 +1222,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -1073,7 +1234,7 @@
         <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -1085,7 +1246,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -1111,7 +1272,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>36</v>
@@ -1164,249 +1325,401 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="B27" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
       <c r="B29" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>49</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>50</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="7"/>
+      <c r="A31" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="B32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>38</v>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>59</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
-      <c r="B35" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>64</v>
+      <c r="A36" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="7"/>
       <c r="B37" s="7" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
       <c r="B38" s="7" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+      <c r="B40" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="13" t="s">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="D41" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="7"/>
       <c r="B42" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D42" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E44" s="13" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C47" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C48" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C49" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C50" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C52" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C53" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C54" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C55" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C56" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C57" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C58" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C59" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B64" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B65" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B66" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D66" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>